--- a/final_data_pipeline/output/322120_finishing_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322120_finishing_elec_nowhp.xlsx
@@ -744,7 +744,7 @@
         <v>94</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -759,10 +759,10 @@
         <v>847294.0534129099</v>
       </c>
       <c r="N2">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="O2">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="P2">
         <v>105.9117566766137</v>
@@ -850,7 +850,7 @@
         <v>94</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -865,10 +865,10 @@
         <v>521742.2737670505</v>
       </c>
       <c r="N4">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="O4">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="P4">
         <v>65.21778422088131</v>
@@ -1109,7 +1109,7 @@
         <v>94</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -1124,10 +1124,10 @@
         <v>10145262.78134973</v>
       </c>
       <c r="N9">
-        <v>1.800714285714286</v>
+        <v>2.028520339740724</v>
       </c>
       <c r="O9">
-        <v>1.963947368421052</v>
+        <v>2.242263395092639</v>
       </c>
       <c r="P9">
         <v>1268.157847668716</v>
@@ -1162,7 +1162,7 @@
         <v>95</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1262,7 +1262,7 @@
         <v>94</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1277,10 +1277,10 @@
         <v>6777097.766202761</v>
       </c>
       <c r="N12">
-        <v>1.800714285714286</v>
+        <v>1.897690627758933</v>
       </c>
       <c r="O12">
-        <v>1.963947368421052</v>
+        <v>2.081514384587572</v>
       </c>
       <c r="P12">
         <v>847.137220775345</v>
@@ -1474,7 +1474,7 @@
         <v>94</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="J16">
         <v>8000</v>
@@ -1489,10 +1489,10 @@
         <v>4161692.946370577</v>
       </c>
       <c r="N16">
-        <v>1.800714285714286</v>
+        <v>1.844936767548521</v>
       </c>
       <c r="O16">
-        <v>1.963947368421052</v>
+        <v>2.017393709936214</v>
       </c>
       <c r="P16">
         <v>520.2116182963222</v>
@@ -1527,7 +1527,7 @@
         <v>94</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1542,10 +1542,10 @@
         <v>1158157.565259957</v>
       </c>
       <c r="N17">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="O17">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="P17">
         <v>144.7696956574947</v>
@@ -1792,7 +1792,7 @@
         <v>94</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1807,10 +1807,10 @@
         <v>498006.3824379408</v>
       </c>
       <c r="N22">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="O22">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="P22">
         <v>62.2507978047426</v>
@@ -1845,7 +1845,7 @@
         <v>94</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1860,10 +1860,10 @@
         <v>2171080.509583559</v>
       </c>
       <c r="N23">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="O23">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="P23">
         <v>271.3850636979449</v>
@@ -1898,7 +1898,7 @@
         <v>95</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -1945,7 +1945,7 @@
         <v>94</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1960,10 +1960,10 @@
         <v>444704.419865286</v>
       </c>
       <c r="N25">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="O25">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="P25">
         <v>55.58805248316075</v>
@@ -2104,7 +2104,7 @@
         <v>94</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J28">
         <v>8000</v>
@@ -2119,10 +2119,10 @@
         <v>962555.9875363602</v>
       </c>
       <c r="N28">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="O28">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="P28">
         <v>120.319498442045</v>
@@ -2560,7 +2560,7 @@
         <v>94</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2575,10 +2575,10 @@
         <v>785248.4726392983</v>
       </c>
       <c r="N37">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="O37">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="P37">
         <v>98.15605907991227</v>
@@ -2872,7 +2872,7 @@
         <v>94</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J43">
         <v>8000</v>
@@ -2887,10 +2887,10 @@
         <v>1623083.715369626</v>
       </c>
       <c r="N43">
-        <v>1.800714285714286</v>
+        <v>1.897690627758933</v>
       </c>
       <c r="O43">
-        <v>1.963947368421052</v>
+        <v>2.081514384587572</v>
       </c>
       <c r="P43">
         <v>202.8854644212032</v>
@@ -2925,7 +2925,7 @@
         <v>94</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J44">
         <v>8000</v>
@@ -2940,10 +2940,10 @@
         <v>1822682.694932646</v>
       </c>
       <c r="N44">
-        <v>1.800714285714286</v>
+        <v>1.694051767048283</v>
       </c>
       <c r="O44">
-        <v>1.963947368421052</v>
+        <v>1.836167304537999</v>
       </c>
       <c r="P44">
         <v>227.8353368665807</v>
@@ -2978,7 +2978,7 @@
         <v>94</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>2.356481481481501</v>
       </c>
       <c r="J45">
         <v>8000</v>
@@ -2993,10 +2993,10 @@
         <v>2094412.636850577</v>
       </c>
       <c r="N45">
-        <v>1.800714285714286</v>
+        <v>1.678525338046114</v>
       </c>
       <c r="O45">
-        <v>1.963947368421052</v>
+        <v>1.817698795724144</v>
       </c>
       <c r="P45">
         <v>261.8015796063222</v>
@@ -3434,7 +3434,7 @@
         <v>94</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J54">
         <v>8000</v>
@@ -3449,10 +3449,10 @@
         <v>2301182.150117165</v>
       </c>
       <c r="N54">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="O54">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="P54">
         <v>287.6477687646457</v>
@@ -3487,7 +3487,7 @@
         <v>94</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="J55">
         <v>8000</v>
@@ -3502,10 +3502,10 @@
         <v>476157.7825985835</v>
       </c>
       <c r="N55">
-        <v>1.800714285714286</v>
+        <v>1.967443877059447</v>
       </c>
       <c r="O55">
-        <v>1.963947368421052</v>
+        <v>2.16691042047532</v>
       </c>
       <c r="P55">
         <v>59.51972282482294</v>
@@ -3540,7 +3540,7 @@
         <v>96</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J56">
         <v>8000</v>
@@ -3587,7 +3587,7 @@
         <v>94</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J57">
         <v>8000</v>
@@ -3602,10 +3602,10 @@
         <v>157314.4809797701</v>
       </c>
       <c r="N57">
-        <v>1.800714285714286</v>
+        <v>1.975772235794973</v>
       </c>
       <c r="O57">
-        <v>1.963947368421052</v>
+        <v>2.177153507468733</v>
       </c>
       <c r="P57">
         <v>19.66431012247126</v>
@@ -3746,7 +3746,7 @@
         <v>94</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J60">
         <v>8000</v>
@@ -3761,10 +3761,10 @@
         <v>353595.345903661</v>
       </c>
       <c r="N60">
-        <v>1.800714285714286</v>
+        <v>1.867546171126113</v>
       </c>
       <c r="O60">
-        <v>1.963947368421052</v>
+        <v>2.044826120875009</v>
       </c>
       <c r="P60">
         <v>44.19941823795762</v>
@@ -3799,7 +3799,7 @@
         <v>94</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J61">
         <v>8000</v>
@@ -3814,10 +3814,10 @@
         <v>1606331.980909168</v>
       </c>
       <c r="N61">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="O61">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="P61">
         <v>200.791497613646</v>
@@ -3958,7 +3958,7 @@
         <v>94</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J64">
         <v>8000</v>
@@ -3973,10 +3973,10 @@
         <v>1671346.242551469</v>
       </c>
       <c r="N64">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="O64">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="P64">
         <v>208.9182803189336</v>
@@ -4164,7 +4164,7 @@
         <v>94</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J68">
         <v>8000</v>
@@ -4179,10 +4179,10 @@
         <v>301335.4168823956</v>
       </c>
       <c r="N68">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="O68">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="P68">
         <v>37.66692711029945</v>
